--- a/app/src/main/assets/quiz_level3.xlsx
+++ b/app/src/main/assets/quiz_level3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\MZ_FocusNews\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57C429C-56D7-489F-8340-4A9FB4CDC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542C76F4-2282-4B45-92D0-864EA7C8F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19020" yWindow="1290" windowWidth="17700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>통일신라 시대의 승려. 이 승려는 '왕오천축국전'을 집필하여 동서 교섭사에 중요한 자료를 남겼다. 여기서 설명하는 인물은 누구인가요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>혜초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>호감 가는 이성이 자신에게 조금만 잘해줘도 본인을 좋아하는 것이라 착각하며 어쩔 줄 몰라하는 현상을 무엇이라고 부르는가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일루전 증후군</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -191,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우리나라의 대표적인 독립운동가로 '흥사단'이란 단체를 만들어 교육과 계몽운동을 통해 독립운동을 펼쳤던 이 사람은 누구일까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>안창호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,10 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해열, 소염 진통제이자 혈전 예방약으로 혈전으로 인한 심혈관 위험성을 감소시키는 목적으로 사용되는 이 약은 무엇일까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아스피린</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,10 +350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'성질이 조급하여 무엇이든지 당장 해치우려 하는 행동'을 뜻하는 속담을 &lt;(   )에 콩 볶아 먹겠다&gt;라고 하는데요. 여기서 000에 들어갈 말은?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전깃불</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -651,6 +631,26 @@
   </si>
   <si>
     <t>Circular wait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통일신라 시대의 이 승려는 '왕오천축국전'을 집필하여 동서 교섭사에 중요한 자료를 남겼다. 여기서 설명하는 인물은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감 가는 이성이 자신에게 조금만 잘해줘도 본인을 좋아한다 착각하며 어쩔 줄 몰라하는 현상을 일컫는 말은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라 대표적인 독립운동가로 '흥사단'이란 단체를 만들어 교육과 계몽운동을 통해 독립운동을 펼쳤던 인물은?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해열, 소염 진통제이자 혈전 예방약으로, 심혈관 위험성을 감소시키는 목적으로 사용되는 이 약은 무엇일까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'성질이 조급하여 무엇이든지 당장 해치우려 하는 행동'을 뜻하는 속담인 &lt;(   )에 콩 볶아 먹겠다&gt;의 괄호에 들어갈 말은?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,13 +1182,13 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,22 +1288,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,22 +1311,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1334,22 +1334,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1357,22 +1357,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1380,22 +1380,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1403,22 +1403,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1426,22 +1426,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1449,22 +1449,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1472,22 +1472,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1495,22 +1495,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1518,22 +1518,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1541,22 +1541,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,22 +1564,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1587,22 +1587,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1610,22 +1610,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,22 +1633,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1656,22 +1656,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,22 +1679,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1702,22 +1702,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1725,22 +1725,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1748,22 +1748,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1771,22 +1771,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1794,22 +1794,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1817,22 +1817,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1840,22 +1840,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1863,22 +1863,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1886,22 +1886,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1909,22 +1909,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1932,22 +1932,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
